--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R9e386af5a55c4e12"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R9217c056fc2546c2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rc60fea119cd543aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Re426049972bb475a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -367,7 +367,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb1b29adc4b6c4af0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc53bf2d6c751488b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc050d9eeed69426e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2604ec85bb0f4475"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb546f99269ac42e0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4566b0d07e34e87"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -544,6 +544,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R02f2246836724b97"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R166ba25e66ab4fe1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rc60fea119cd543aa"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Re426049972bb475a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R32f57842eda24c6d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Ra926d25b58224606"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -367,7 +367,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc53bf2d6c751488b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R422b5981e44d47be"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2604ec85bb0f4475"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd82bfce19a354e8b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4566b0d07e34e87"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9b8cb772d3724531"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -544,6 +544,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R166ba25e66ab4fe1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3891893901754d7c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R32f57842eda24c6d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Ra926d25b58224606"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R5d9aabfa84664cf5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R04c5e961ec094efa"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -367,7 +367,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R422b5981e44d47be"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R74456e98b2354f52"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd82bfce19a354e8b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfec75baa26db4ced"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9b8cb772d3724531"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2f32f8f321fd4e78"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -544,6 +544,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3891893901754d7c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf867cd1a69da41d6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R5d9aabfa84664cf5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R04c5e961ec094efa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R3c90eaac9711426d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R3238148619754910"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -367,7 +367,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R74456e98b2354f52"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R231a00ad114840a3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfec75baa26db4ced"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R97e8974eca5046cf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2f32f8f321fd4e78"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R41732ecbc48c4c0c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -544,6 +544,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf867cd1a69da41d6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7e96d617953f4a66"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R3c90eaac9711426d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R3238148619754910"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R6726b8a2c8714f6a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rd1cf9ac2ffb14ea8"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -367,7 +367,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R231a00ad114840a3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R85f20618033940cc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -397,7 +397,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R97e8974eca5046cf"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0782a5ef11414eac"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +427,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R41732ecbc48c4c0c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R50b642715c594344"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -544,6 +544,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7e96d617953f4a66"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R483d865897804ab8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,9 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R6726b8a2c8714f6a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rd1cf9ac2ffb14ea8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R11aea7534c534bbb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R0630bed91db54a59"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -367,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R85f20618033940cc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4d3136711ce44ec8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -397,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0782a5ef11414eac"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7bcb4b1b27ce4820"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -427,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R50b642715c594344"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5eb38a783dac460f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -544,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R483d865897804ab8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R136e15ac26114c80"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R11aea7534c534bbb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R0630bed91db54a59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R305cc8e8b4f6441b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R1167258969f84b1b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4d3136711ce44ec8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4144b4cd6b584685"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7bcb4b1b27ce4820"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9e5383b5326942f7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5eb38a783dac460f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb9a67164b4c1481d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R136e15ac26114c80"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R21156c7278ca478c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R305cc8e8b4f6441b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R1167258969f84b1b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rd5560641cdf8479f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Ra17ba2b08e884c4e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4144b4cd6b584685"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ree85367fa60f474f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9e5383b5326942f7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re6ac3b7677034f61"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb9a67164b4c1481d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfe6142420a4542b4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R21156c7278ca478c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re6df9a1f53a548d8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rd5560641cdf8479f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Ra17ba2b08e884c4e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R3255d3497f384f6a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R2df84ef872db4e5d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ree85367fa60f474f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Refe05da58a934f7a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re6ac3b7677034f61"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3d3dbc6f8c574d65"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfe6142420a4542b4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5118733649a4f51"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re6df9a1f53a548d8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra34586c20f924b4f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R3255d3497f384f6a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R2df84ef872db4e5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R279d805df4e14535"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Re7e06da0a5b24a46"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Refe05da58a934f7a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78f1475350ce44ff"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3d3dbc6f8c574d65"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Refb8b5f059074bf4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5118733649a4f51"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf5d674827de4f53"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra34586c20f924b4f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb77aeb9e3d1b48f7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R279d805df4e14535"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Re7e06da0a5b24a46"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rc9a814771eb24758"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Ra12992fe6bd1428c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78f1475350ce44ff"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9c935063cfa94fdd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Refb8b5f059074bf4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbfc3176fded6467a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf5d674827de4f53"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3adcaf857d5c4c4d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb77aeb9e3d1b48f7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb8043c19b86c42f8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rc9a814771eb24758"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Ra12992fe6bd1428c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rb9e9d7ebfe934e7f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R218784318fa74091"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9c935063cfa94fdd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc48d1aa61f574c8d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbfc3176fded6467a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra71a90d15209473d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3adcaf857d5c4c4d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra13f2d3d49354645"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb8043c19b86c42f8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf44ae50f0edb4647"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rb9e9d7ebfe934e7f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R218784318fa74091"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rb6e95188abd8486e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rad04ae9c240b44fb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc48d1aa61f574c8d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcb965ec0306b4f13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra71a90d15209473d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1056b07e55514ab3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra13f2d3d49354645"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4b35850eb4184359"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf44ae50f0edb4647"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6c546dedb75c4341"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rb6e95188abd8486e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rad04ae9c240b44fb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R57e87ad83dd2400a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Re0f055dd5e524379"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcb965ec0306b4f13"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R65741af4e01a498b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1056b07e55514ab3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5f9e63ea91b4805"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4b35850eb4184359"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2d87c2fa0d634223"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6c546dedb75c4341"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rda30b0cf95664b7d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R57e87ad83dd2400a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Re0f055dd5e524379"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R628307ffa2a640aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R9fa42eb5877f4701"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R65741af4e01a498b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R43d8533dd8954b78"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5f9e63ea91b4805"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbae071bd7a1d4e86"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2d87c2fa0d634223"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R469f78dc472d4514"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rda30b0cf95664b7d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcd30b3888b1f4d95"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R628307ffa2a640aa"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R9fa42eb5877f4701"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R56cee5fece1f41b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Ra5bb3cd62b8845f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R43d8533dd8954b78"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2ae6036dab724ed9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbae071bd7a1d4e86"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1bcdd5262c6f4271"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R469f78dc472d4514"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4eaad89c5be44d87"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcd30b3888b1f4d95"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde2e1daee42e47e1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R56cee5fece1f41b0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Ra5bb3cd62b8845f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rf9456ec5edf849fb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R77f19c8c52134341"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2ae6036dab724ed9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R99fe38a250804ba6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1bcdd5262c6f4271"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfb74739498ba4e33"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4eaad89c5be44d87"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd38423df07ff42d2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde2e1daee42e47e1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6bf4ebed709b4e20"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rf9456ec5edf849fb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R77f19c8c52134341"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R159e857c4d58485e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R5549661edec4482a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R99fe38a250804ba6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf36c13486094fc7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfb74739498ba4e33"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R380a2bbee5134ef6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd38423df07ff42d2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6201049d5ef74e1d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6bf4ebed709b4e20"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra06b8bb033bd4597"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R159e857c4d58485e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R5549661edec4482a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rfb2003529bc94c29"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rd9907fbc7d25406e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf36c13486094fc7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd13376003a904a35"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R380a2bbee5134ef6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5a67b85ba51d4ef4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6201049d5ef74e1d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8aea7132c6ca4eba"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra06b8bb033bd4597"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3a3ca347959f4f92"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rfb2003529bc94c29"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rd9907fbc7d25406e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R4247dbde27934a3b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R9f24481a93a849b4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd13376003a904a35"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra2fbbac536ae4141"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5a67b85ba51d4ef4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R322b4f73fee54ff7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8aea7132c6ca4eba"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51ad4ce173e949fc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3a3ca347959f4f92"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7205b6ff8faa44ed"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R4247dbde27934a3b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R9f24481a93a849b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rc4e6e32a4c0d485e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R1738a6ccc5ec49d8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra2fbbac536ae4141"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R63c48bb952654674"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R322b4f73fee54ff7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4c95592b5a344b17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R51ad4ce173e949fc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4c2a194f7a814ffb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7205b6ff8faa44ed"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rea9d20f8b2f44af4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rc4e6e32a4c0d485e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R1738a6ccc5ec49d8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R9974b72647a04da0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R4dd5532a80234e7f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R63c48bb952654674"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R57e19bdc9b004daf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4c95592b5a344b17"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc4fe1fbe15e54246"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4c2a194f7a814ffb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb32242a3cf3441d1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rea9d20f8b2f44af4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R192cc05647aa4ebc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R9974b72647a04da0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R4dd5532a80234e7f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rc17b083830f44c14"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R5152775843bc439f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R57e19bdc9b004daf"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfdf275a506ba4acd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc4fe1fbe15e54246"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra4fef13a309a4a45"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb32242a3cf3441d1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R953d82b5da054925"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R192cc05647aa4ebc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R33a2caffc93f43e2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rc17b083830f44c14"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R5152775843bc439f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R535947618c584e67"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rc3b733591b824e0c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfdf275a506ba4acd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R733508565af543b2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra4fef13a309a4a45"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R85b80216fc40471b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R953d82b5da054925"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra058ddb54dea4fdd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R33a2caffc93f43e2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7409de0985b04ac4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R535947618c584e67"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="Rc3b733591b824e0c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Re08279c28c2746e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R6a02fd99f5e64b07"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R733508565af543b2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R31699d7b29f64840"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R85b80216fc40471b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc224995002944025"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra058ddb54dea4fdd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c565f6a21914fe9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7409de0985b04ac4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc7ab60ce11d24232"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Re08279c28c2746e4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R6a02fd99f5e64b07"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R9e10bbf2f6c64690"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R5ac964bc16f44f2e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -368,7 +368,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R31699d7b29f64840"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R75273827711a4fa6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +398,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc224995002944025"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbe20514f93334186"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +428,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c565f6a21914fe9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rae9f1f1f79344602"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +545,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc7ab60ce11d24232"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R147916a2b7934e68"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R9e10bbf2f6c64690"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R5ac964bc16f44f2e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R6a056585a3e34baf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R6e23c73399b54d08"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -108,6 +108,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Data'!$A$2:$A$7</c:f>
@@ -201,6 +204,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Data'!$A$2:$A$7</c:f>
@@ -277,6 +283,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Data'!$A$2:$A$7</c:f>
@@ -368,7 +377,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R75273827711a4fa6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcfdb08ae1b264f35"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -398,7 +407,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbe20514f93334186"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdcb9b1d1282446a0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -428,7 +437,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rae9f1f1f79344602"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R153ffa140e6640a4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -545,6 +554,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R147916a2b7934e68"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R11a1c51405474869"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R6a056585a3e34baf"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R6e23c73399b54d08"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R4b47d632bbd242fb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R60cfebe156454366"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -377,7 +377,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcfdb08ae1b264f35"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4c2ed521eff4b51"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -407,7 +407,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdcb9b1d1282446a0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfe1863271e85460f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -437,7 +437,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R153ffa140e6640a4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcad05f96d88c49e2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -554,6 +554,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R11a1c51405474869"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R89a3ae7625cd4596"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R4b47d632bbd242fb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R60cfebe156454366"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R857381862e684977"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R169b5935bbca4852"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -207,6 +207,10 @@
           <c:tx>
             <c:v>Series 1</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Data'!$A$2:$A$7</c:f>
@@ -377,7 +381,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4c2ed521eff4b51"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R11caa095fda5466e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -407,7 +411,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfe1863271e85460f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd9d295904384496b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -437,7 +441,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcad05f96d88c49e2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2cc68b8db1fb4f7a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -554,6 +558,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R89a3ae7625cd4596"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbde2892955fc4cab"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R857381862e684977"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R169b5935bbca4852"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R9725380bc0cb4530"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R05a35d40da2d4372"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -381,7 +381,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R11caa095fda5466e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R893ac3e2bd274971"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -411,7 +411,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd9d295904384496b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R643182daaad84d94"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -441,7 +441,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2cc68b8db1fb4f7a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6d0924d3105e472e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -558,6 +558,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbde2892955fc4cab"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1eb4b0c2fbc04eb2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R9725380bc0cb4530"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R05a35d40da2d4372"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R74732a3bbb2b4e85"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R6ccbe57232814388"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -381,7 +381,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R893ac3e2bd274971"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcb560148d9884e26"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -411,7 +411,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R643182daaad84d94"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9038db2f6e6e4535"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -441,7 +441,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6d0924d3105e472e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rff0ab8db77a84ddf"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -558,6 +558,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1eb4b0c2fbc04eb2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb0d4b4e49f5d4417"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="R74732a3bbb2b4e85"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R6ccbe57232814388"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rb121042072f34633"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R4b613e4a66ba4cc8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -381,7 +381,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcb560148d9884e26"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R21924f49ef244e7f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -411,7 +411,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9038db2f6e6e4535"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c3c6879b1a24561"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -441,7 +441,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rff0ab8db77a84ddf"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R97fc5412fe964756"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -558,6 +558,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb0d4b4e49f5d4417"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfd733e1fb5114cd0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/45_ChartSheet.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rb121042072f34633"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R4b613e4a66ba4cc8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" r:id="Rec9bd639ade144b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="2" r:id="R9829066a200a4c61"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -222,6 +222,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:lineChart>
@@ -381,7 +389,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R21924f49ef244e7f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R584964345da34354"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -411,7 +419,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0c3c6879b1a24561"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba8a7df0bbed47f3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -441,7 +449,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R97fc5412fe964756"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R28df6193914c4209"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -558,6 +566,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfd733e1fb5114cd0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R97dcaf38355a4163"/>
 </x:worksheet>
 </file>